--- a/data/word_list.xlsx
+++ b/data/word_list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyungsoohong/workspace/twigfarm/word-dic-generator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyungsoo/Workspace/Dev/seohae/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68E097A2-B7DF-4D44-B890-08255DA054B8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA6E0B6-A2E6-A64E-A5AF-3078DE0DE57D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15540" xr2:uid="{505DC7C4-6DBA-7E48-AC57-A1F388600648}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>inform</t>
   </si>
@@ -265,6 +265,12 @@
   </si>
   <si>
     <t>재료, 물질, 물질의</t>
+  </si>
+  <si>
+    <t>En</t>
+  </si>
+  <si>
+    <t>Ko</t>
   </si>
 </sst>
 </file>
@@ -623,331 +629,339 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9CC6C4-0CB7-584C-BD66-5DD9BD787515}">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B40"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+      <c r="A1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>79</v>
       </c>
     </row>
